--- a/outputs-HGR-r202/g__Dialister.xlsx
+++ b/outputs-HGR-r202/g__Dialister.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,590 +524,177 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24126.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.672071508064781e-07</v>
+        <v>0.2500091836311945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0013652788464416</v>
+        <v>0.4662149293641228</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04061944763686502</v>
+        <v>0.0008231442278015463</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001603490314841303</v>
+        <v>0.0007728350107749762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001318527112639171</v>
+        <v>4.141904321018868e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9299039734587101</v>
+        <v>1.740227642327525e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006420913037304658</v>
+        <v>0.06184634458389496</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01206134938709885</v>
+        <v>0.007926008225516559</v>
       </c>
       <c r="J2" t="n">
-        <v>8.003261377013507e-05</v>
+        <v>0.001246096770747475</v>
       </c>
       <c r="K2" t="n">
-        <v>7.609313792548726e-07</v>
+        <v>0.04912518662459648</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45995245063976e-07</v>
+        <v>3.730660133213349e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000742077484026669</v>
+        <v>0.1609386632311829</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00707051037590268</v>
+        <v>0.001092919337069202</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9299039734587101</v>
+        <v>0.4662149293641228</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>s__Dialister sp900541605</t>
+          <t>s__Dialister sp000434475</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>s__Dialister sp900541605</t>
+          <t>s__Dialister sp000434475(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33604.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.799457918180298e-08</v>
+        <v>5.361892030668128e-10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007558361556390163</v>
+        <v>0.000422064832999489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01283466050278021</v>
+        <v>0.1007436828280343</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003254811922099335</v>
+        <v>0.8802912699780489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001309321921353224</v>
+        <v>1.572784308410624e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9439696505727101</v>
+        <v>7.60446879065747e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003686408209106778</v>
+        <v>0.006806045205315498</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02621877995207408</v>
+        <v>0.003481131203286486</v>
       </c>
       <c r="J3" t="n">
-        <v>8.086967691292102e-05</v>
+        <v>7.636620057085839e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>4.823332224953099e-07</v>
+        <v>4.87919165321692e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>5.872424204611031e-08</v>
+        <v>3.163899456865047e-08</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0007935716050235707</v>
+        <v>3.984636653010735e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008273910159475067</v>
+        <v>0.008159614172944111</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9439696505727101</v>
+        <v>0.8802912699780489</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>s__Dialister sp900541605</t>
+          <t>s__Dialister sp900538805</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>s__Dialister sp900541605</t>
+          <t>s__Dialister sp900538805</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35807.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.720510768734507e-07</v>
+        <v>3.60980604761546e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00665290836076088</v>
+        <v>0.005583940733806392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2810754848384382</v>
+        <v>0.09179833457403988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2406572751075111</v>
+        <v>0.8091331724232967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006507514399944625</v>
+        <v>0.0002052006902372088</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2577497286654498</v>
+        <v>0.0005371924276085984</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0444505228363802</v>
+        <v>0.03994284734910815</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1146859831404984</v>
+        <v>0.01671099852448962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005019227817036656</v>
+        <v>0.0006003009542852303</v>
       </c>
       <c r="K4" t="n">
-        <v>1.567543286612552e-06</v>
+        <v>1.659549322037333e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>7.577141904115743e-07</v>
+        <v>6.627665925564787e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001601231115235848</v>
+        <v>0.0002820255039151326</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05197149440547368</v>
+        <v>0.03520512199962783</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2810754848384382</v>
+        <v>0.8091331724232967</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>s__Dialister sp002320515</t>
+          <t>s__Dialister sp900538805</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>s__Dialister sp002320515(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT37167.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5.361892030668128e-10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000422064832999489</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1007436828280343</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8802912699780489</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.572784308410624e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.60446879065747e-08</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.006806045205315498</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.003481131203286486</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.636620057085839e-05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.87919165321692e-09</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.163899456865047e-08</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.984636653010735e-06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.008159614172944111</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.8802912699780489</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>s__Dialister sp900538805</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>s__Dialister sp900538805</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT38551.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.069317045596465e-08</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002437318432789035</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4556600180179932</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4015390546355608</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001948775495488519</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.003587212406862413</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.04372911336242218</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.03693663132748686</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0005999543792998935</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.769861758237812e-07</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.351279324339276e-07</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0007512647007034001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.05280983443411497</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.4556600180179932</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT42358.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9.664239862657317e-08</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0121722146177283</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5795582305845536</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2527673267449734</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0008201724234841245</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.001165293821082099</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02866386512237126</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.05980545746832156</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0003897819367321847</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.664657617149043e-07</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.355764876634605e-06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.009476838605747797</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.05517769980196881</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5795582305845536</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT55383.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.60980604761546e-08</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.005583940733806392</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09179833457403988</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8091331724232967</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0002052006902372088</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0005371924276085984</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03994284734910815</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.01671099852448962</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0006003009542852303</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.659549322037333e-07</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.627665925564787e-07</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0002820255039151326</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03520512199962783</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.8091331724232967</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>s__Dialister sp900538805</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>s__Dialister sp900538805</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66378.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.522091188298097e-07</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006520605510756872</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7164566678164962</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02633951851464039</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01155239436082772</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0802878573473219</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0451299810860995</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.05584837699607872</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0007024020262955758</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.567990561181193e-07</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.527102351836658e-06</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.004811854217898568</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.05234600601305773</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.7164566678164962</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66382.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.991040103961026e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005205312734521377</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6807256942224696</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.005177023756892362</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.05118532802535593</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04192379100934495</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.05855365892575689</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.06613999559979955</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0001644028318278124</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.097214709881074e-05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.756823876807648e-05</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.02733374895158467</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.06347259315554031</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.6807256942224696</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73491.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7.92863101629644e-07</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01607504824576775</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2693097483517324</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2286669448511792</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04268383553905328</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.04337266755762124</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.07597958792152253</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1252110052382621</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0004992253043538236</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.461246712681181e-07</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.535452480252135e-06</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.002516621380092285</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.1956773411701623</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.2693097483517324</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>s__Dialister sp002320515(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Dialister.xlsx
+++ b/outputs-HGR-r202/g__Dialister.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__Dialister sp900541605</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900541605(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__Dialister sp900541605</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900541605</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -677,6 +692,11 @@
           <t>s__Dialister sp000434475</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>s__Dialister sp000434475</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -731,6 +751,11 @@
           <t>s__Dialister sp900541605</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900541605</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -785,6 +810,11 @@
           <t>s__Dialister sp002320515</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -839,6 +869,11 @@
           <t>s__Dialister sp900538805</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900538805</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -893,6 +928,11 @@
           <t>s__Dialister sp002320515</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -947,6 +987,11 @@
           <t>s__Dialister sp002320515</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1001,6 +1046,11 @@
           <t>s__Dialister sp900538805</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>s__Dialister sp900538805</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1055,6 +1105,11 @@
           <t>s__Dialister sp002320515</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1109,6 +1164,11 @@
           <t>s__Dialister sp002320515</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1161,6 +1221,11 @@
       <c r="P13" t="inlineStr">
         <is>
           <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Dialister.xlsx
+++ b/outputs-HGR-r202/g__Dialister.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>s__Dialister sp002320515</t>
+          <t>s__Dialister sp002320515(reject)</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>s__Dialister sp002320515</t>
+          <t>s__Dialister sp002320515(reject)</t>
         </is>
       </c>
     </row>
@@ -931,6 +931,183 @@
       <c r="Q8" t="inlineStr">
         <is>
           <t>s__Dialister sp900538805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66378.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.522091188298097e-07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006520605510756872</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7164566678164962</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02633951851464039</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01155239436082772</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0802878573473219</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0451299810860995</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05584837699607872</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0007024020262955758</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.567990561181193e-07</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.527102351836658e-06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.004811854217898568</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.05234600601305773</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7164566678164962</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66382.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.991040103961026e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005205312734521377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6807256942224696</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.005177023756892362</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05118532802535593</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04192379100934495</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.05855365892575689</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06613999559979955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0001644028318278124</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.097214709881074e-05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.756823876807648e-05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.02733374895158467</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06347259315554031</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6807256942224696</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73491.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.92863101629644e-07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01607504824576775</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2693097483517324</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2286669448511792</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04268383553905328</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04337266755762124</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07597958792152253</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1252110052382621</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004992253043538236</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.461246712681181e-07</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.535452480252135e-06</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002516621380092285</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1956773411701623</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2693097483517324</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>s__Dialister sp002320515(reject)</t>
         </is>
       </c>
     </row>
